--- a/Code/Results/Cases/Case_8_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.588824516940406</v>
+        <v>2.603512018112951</v>
       </c>
       <c r="C2">
-        <v>0.7890911035478041</v>
+        <v>0.9429542192726217</v>
       </c>
       <c r="D2">
-        <v>0.0860787853072047</v>
+        <v>0.0468408940598426</v>
       </c>
       <c r="E2">
-        <v>0.03761447406479945</v>
+        <v>0.04778959140653249</v>
       </c>
       <c r="F2">
-        <v>2.629367120996562</v>
+        <v>1.815375735323215</v>
       </c>
       <c r="G2">
-        <v>0.0008188388213771671</v>
+        <v>0.008362958248577135</v>
       </c>
       <c r="H2">
-        <v>0.006334270508613016</v>
+        <v>0.003187946580573642</v>
       </c>
       <c r="I2">
-        <v>0.0064341367048808</v>
+        <v>0.002537604097509139</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.645393024333529</v>
+        <v>1.015347267611517</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4291117590027866</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3361409811197333</v>
       </c>
       <c r="N2">
-        <v>0.1842727904583867</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4501211528545284</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2020007255751324</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4566121863332029</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.253144468808102</v>
+        <v>2.267147274152023</v>
       </c>
       <c r="C3">
-        <v>0.6818570645875468</v>
+        <v>0.8181927270485119</v>
       </c>
       <c r="D3">
-        <v>0.08271426327367948</v>
+        <v>0.04571726288708877</v>
       </c>
       <c r="E3">
-        <v>0.0327879282295509</v>
+        <v>0.04395642221351803</v>
       </c>
       <c r="F3">
-        <v>2.373426657278983</v>
+        <v>1.655481638017193</v>
       </c>
       <c r="G3">
-        <v>0.0008247612443500116</v>
+        <v>0.01325694316309001</v>
       </c>
       <c r="H3">
-        <v>0.009840636301494413</v>
+        <v>0.005150885678759209</v>
       </c>
       <c r="I3">
-        <v>0.01046730021476083</v>
+        <v>0.004289447620720033</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.514341250399937</v>
+        <v>0.956293196284399</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4168156216001648</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3052542607058584</v>
       </c>
       <c r="N3">
-        <v>0.1619300266957069</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3926725539307583</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1796704900490056</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3982271442191418</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.047702784705223</v>
+        <v>2.060555941702091</v>
       </c>
       <c r="C4">
-        <v>0.61697488884937</v>
+        <v>0.7422152310608112</v>
       </c>
       <c r="D4">
-        <v>0.08054806536827641</v>
+        <v>0.04495859745081443</v>
       </c>
       <c r="E4">
-        <v>0.02991298991910796</v>
+        <v>0.04161843671829768</v>
       </c>
       <c r="F4">
-        <v>2.216756568423108</v>
+        <v>1.556777561647465</v>
       </c>
       <c r="G4">
-        <v>0.0008285132684046421</v>
+        <v>0.01693686063646371</v>
       </c>
       <c r="H4">
-        <v>0.01245365385675465</v>
+        <v>0.006637164545839735</v>
       </c>
       <c r="I4">
-        <v>0.01358079514626809</v>
+        <v>0.005723031543966695</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.4335748593559</v>
+        <v>0.9193562948843663</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4086331483498853</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2869633586530398</v>
       </c>
       <c r="N4">
-        <v>0.1482880567486689</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3575084070424808</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1659953098448881</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3624038271973973</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.96408387493517</v>
+        <v>1.976297738684082</v>
       </c>
       <c r="C5">
-        <v>0.5914053083346573</v>
+        <v>0.7119897320285986</v>
       </c>
       <c r="D5">
-        <v>0.07943312710774109</v>
+        <v>0.04455618269011197</v>
       </c>
       <c r="E5">
-        <v>0.02875885916891896</v>
+        <v>0.04067137709172552</v>
       </c>
       <c r="F5">
-        <v>2.148593672992376</v>
+        <v>1.513397559234079</v>
       </c>
       <c r="G5">
-        <v>0.0008300842919217492</v>
+        <v>0.01860980535016044</v>
       </c>
       <c r="H5">
-        <v>0.01363730404860169</v>
+        <v>0.007314966272285783</v>
       </c>
       <c r="I5">
-        <v>0.01509575123375351</v>
+        <v>0.006488770011354283</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.39712781766255</v>
+        <v>0.9019649900666877</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4042441740883689</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2789495259783124</v>
       </c>
       <c r="N5">
-        <v>0.1427707213328873</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.343222757505302</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1604503188476727</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3478264106722122</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.950168128336315</v>
+        <v>1.962260307852944</v>
       </c>
       <c r="C6">
-        <v>0.5879793701105598</v>
+        <v>0.7077110082028639</v>
       </c>
       <c r="D6">
-        <v>0.07899456524958737</v>
+        <v>0.04439635780495443</v>
       </c>
       <c r="E6">
-        <v>0.02856705420469829</v>
+        <v>0.04051840561065934</v>
       </c>
       <c r="F6">
-        <v>2.131909941499217</v>
+        <v>1.502513871736525</v>
       </c>
       <c r="G6">
-        <v>0.0008303619300030727</v>
+        <v>0.01891213067498287</v>
       </c>
       <c r="H6">
-        <v>0.0138517483539552</v>
+        <v>0.007437663322828414</v>
       </c>
       <c r="I6">
-        <v>0.01547951593906749</v>
+        <v>0.006747407714591702</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.386869975707057</v>
+        <v>0.8964266322993808</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4024148901217615</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2767427454343903</v>
       </c>
       <c r="N6">
-        <v>0.1418884021246427</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3408795670482618</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.15955609972427</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3454283561404452</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.046462494650825</v>
+        <v>2.059306163156805</v>
       </c>
       <c r="C7">
-        <v>0.6188388290038063</v>
+        <v>0.7388319376686923</v>
       </c>
       <c r="D7">
-        <v>0.07984288676983908</v>
+        <v>0.04428097657410834</v>
       </c>
       <c r="E7">
-        <v>0.02989355393010751</v>
+        <v>0.04146763735456105</v>
       </c>
       <c r="F7">
-        <v>2.201134820672536</v>
+        <v>1.527985186369051</v>
       </c>
       <c r="G7">
-        <v>0.000828574787342476</v>
+        <v>0.01743321886591787</v>
       </c>
       <c r="H7">
-        <v>0.01249838584528112</v>
+        <v>0.006690371631807468</v>
       </c>
       <c r="I7">
-        <v>0.01391665039293066</v>
+        <v>0.006092195155583013</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.421582195928508</v>
+        <v>0.9010731302012687</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.401199088385475</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2807113235041641</v>
       </c>
       <c r="N7">
-        <v>0.1483039124240051</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3573909623291911</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1656410615421819</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3621002960465702</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.472730899800013</v>
+        <v>2.487305684190119</v>
       </c>
       <c r="C8">
-        <v>0.7548376286217433</v>
+        <v>0.8856603063335342</v>
       </c>
       <c r="D8">
-        <v>0.08402173638983612</v>
+        <v>0.04487525934854197</v>
       </c>
       <c r="E8">
-        <v>0.03592177188134915</v>
+        <v>0.04597453891599557</v>
       </c>
       <c r="F8">
-        <v>2.521391176000819</v>
+        <v>1.68705089228186</v>
       </c>
       <c r="G8">
-        <v>0.0008209091638581963</v>
+        <v>0.01194365640891881</v>
       </c>
       <c r="H8">
-        <v>0.007472886788065736</v>
+        <v>0.003888925356484885</v>
       </c>
       <c r="I8">
-        <v>0.008051136540231596</v>
+        <v>0.003526171463508199</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.584931738405828</v>
+        <v>0.950145174046682</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4073394939538915</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3093077563131814</v>
       </c>
       <c r="N8">
-        <v>0.1766700909979448</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.430382573207325</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.193211732299396</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4359744337639242</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.316045567144215</v>
+        <v>3.327242549000403</v>
       </c>
       <c r="C9">
-        <v>1.026644942815608</v>
+        <v>1.193750348829099</v>
       </c>
       <c r="D9">
-        <v>0.09266624867029805</v>
+        <v>0.04733186567659953</v>
       </c>
       <c r="E9">
-        <v>0.04864371218803853</v>
+        <v>0.0555155889986878</v>
       </c>
       <c r="F9">
-        <v>3.182055280588344</v>
+        <v>2.078829724055396</v>
       </c>
       <c r="G9">
-        <v>0.0008066908129607144</v>
+        <v>0.003818802745982453</v>
       </c>
       <c r="H9">
-        <v>0.001535610343287086</v>
+        <v>0.0006641671302543006</v>
       </c>
       <c r="I9">
-        <v>0.001585907464892955</v>
+        <v>0.0009340119001102209</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.924647347727856</v>
+        <v>1.092835872689783</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4352965566436637</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3886612875609572</v>
       </c>
       <c r="N9">
-        <v>0.2329514591542079</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5745690200827838</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.248813279263203</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5817273984325624</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.947774145011522</v>
+        <v>3.950980505461985</v>
       </c>
       <c r="C10">
-        <v>1.241588770226201</v>
+        <v>1.399284568613666</v>
       </c>
       <c r="D10">
-        <v>0.0948206977464352</v>
+        <v>0.04645993153724381</v>
       </c>
       <c r="E10">
-        <v>0.05977483277188078</v>
+        <v>0.06319128128205875</v>
       </c>
       <c r="F10">
-        <v>3.593110764598151</v>
+        <v>2.21381236582927</v>
       </c>
       <c r="G10">
-        <v>0.0007969503629317891</v>
+        <v>0.00920186573941173</v>
       </c>
       <c r="H10">
-        <v>0.0002436091668993612</v>
+        <v>0.0001934200594111424</v>
       </c>
       <c r="I10">
-        <v>0.0009508784962601879</v>
+        <v>0.001305995436323926</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.113098215347179</v>
+        <v>1.102602017924355</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4200104353622578</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.414187340065574</v>
       </c>
       <c r="N10">
-        <v>0.2622426507483482</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.674153446023702</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2746897478813537</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6805529155946743</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.28242885817258</v>
+        <v>4.283519211317298</v>
       </c>
       <c r="C11">
-        <v>1.403133182693182</v>
+        <v>1.479943556162652</v>
       </c>
       <c r="D11">
-        <v>0.07049216240766754</v>
+        <v>0.04579303081088071</v>
       </c>
       <c r="E11">
-        <v>0.07967733588631987</v>
+        <v>0.08172533176342078</v>
       </c>
       <c r="F11">
-        <v>3.137950498568358</v>
+        <v>1.746588645268204</v>
       </c>
       <c r="G11">
-        <v>0.0007942699161545933</v>
+        <v>0.04291707597170458</v>
       </c>
       <c r="H11">
-        <v>0.01877492922784185</v>
+        <v>0.01876017172961753</v>
       </c>
       <c r="I11">
-        <v>0.001716864430399312</v>
+        <v>0.002128672449305924</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.722142642960051</v>
+        <v>0.7840416920207076</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3006043918974726</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2964021371063339</v>
       </c>
       <c r="N11">
-        <v>0.1761870413246527</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6543116962341813</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1814177128785914</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6574140639197168</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.433521430487929</v>
+        <v>4.435276725275173</v>
       </c>
       <c r="C12">
-        <v>1.493532641477259</v>
+        <v>1.520651685709424</v>
       </c>
       <c r="D12">
-        <v>0.0569603149255844</v>
+        <v>0.05300231351261075</v>
       </c>
       <c r="E12">
-        <v>0.1024422078881564</v>
+        <v>0.1031629630371746</v>
       </c>
       <c r="F12">
-        <v>2.716958643315849</v>
+        <v>1.431581018267408</v>
       </c>
       <c r="G12">
-        <v>0.0007938085510739777</v>
+        <v>0.0672656239470939</v>
       </c>
       <c r="H12">
-        <v>0.05746236880211342</v>
+        <v>0.05744598799127942</v>
       </c>
       <c r="I12">
-        <v>0.00175907460810798</v>
+        <v>0.002150229268782056</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.404252562076152</v>
+        <v>0.592362801671598</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2324499699046214</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2214945786510327</v>
       </c>
       <c r="N12">
-        <v>0.114223541613093</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6166193882017055</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1165696545757342</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6179801624746162</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.450072939176835</v>
+        <v>4.454754401767218</v>
       </c>
       <c r="C13">
-        <v>1.536634016135849</v>
+        <v>1.550391140948534</v>
       </c>
       <c r="D13">
-        <v>0.04980640498390887</v>
+        <v>0.06095993518360387</v>
       </c>
       <c r="E13">
-        <v>0.1282770694816158</v>
+        <v>0.1293546930038474</v>
       </c>
       <c r="F13">
-        <v>2.276177525397983</v>
+        <v>1.21363185497971</v>
       </c>
       <c r="G13">
-        <v>0.0007950880904450276</v>
+        <v>0.06142818382416593</v>
       </c>
       <c r="H13">
-        <v>0.1132965114268814</v>
+        <v>0.113230606894362</v>
       </c>
       <c r="I13">
-        <v>0.001544360171815917</v>
+        <v>0.001975938087440454</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.107159651771482</v>
+        <v>0.4731910702781619</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1923095518454723</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1720671400087141</v>
       </c>
       <c r="N13">
-        <v>0.06768368211039189</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5634777176366796</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.06975084101097906</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5644742174449888</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.400784091380103</v>
+        <v>4.408263815013129</v>
       </c>
       <c r="C14">
-        <v>1.546311627220405</v>
+        <v>1.566863006020014</v>
       </c>
       <c r="D14">
-        <v>0.04846540492813389</v>
+        <v>0.06574934130207311</v>
       </c>
       <c r="E14">
-        <v>0.1486426962063341</v>
+        <v>0.1511115050270604</v>
       </c>
       <c r="F14">
-        <v>1.961786375887911</v>
+        <v>1.094255378231608</v>
       </c>
       <c r="G14">
-        <v>0.0007967634178156374</v>
+        <v>0.04483732918995997</v>
       </c>
       <c r="H14">
-        <v>0.1627828535977471</v>
+        <v>0.1626251158490817</v>
       </c>
       <c r="I14">
-        <v>0.001443381974850944</v>
+        <v>0.001884347810831244</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9125102011374437</v>
+        <v>0.4144217695890262</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1734229601389963</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1463628591950048</v>
       </c>
       <c r="N14">
-        <v>0.04466462830288265</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5197905082005647</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04718861319584633</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5210230015779729</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.359669609311482</v>
+        <v>4.368215645998816</v>
       </c>
       <c r="C15">
-        <v>1.539086172537168</v>
+        <v>1.568364531324448</v>
       </c>
       <c r="D15">
-        <v>0.04868313094086396</v>
+        <v>0.06602678454348165</v>
       </c>
       <c r="E15">
-        <v>0.1531565634142815</v>
+        <v>0.156610060907127</v>
       </c>
       <c r="F15">
-        <v>1.874167411064789</v>
+        <v>1.07419342834369</v>
       </c>
       <c r="G15">
-        <v>0.000797578552811017</v>
+        <v>0.03646169577547553</v>
       </c>
       <c r="H15">
-        <v>0.1753752976786274</v>
+        <v>0.1751619719360491</v>
       </c>
       <c r="I15">
-        <v>0.001525155697402525</v>
+        <v>0.001966889822536899</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8629791190813236</v>
+        <v>0.4062967881784232</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1712262538680314</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1421639548437419</v>
       </c>
       <c r="N15">
-        <v>0.04020041113072281</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.505971623934613</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04303349974915882</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5074621874706793</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.081366053872159</v>
+        <v>4.093391559583608</v>
       </c>
       <c r="C16">
-        <v>1.436097223193599</v>
+        <v>1.524749935165175</v>
       </c>
       <c r="D16">
-        <v>0.04924140326046</v>
+        <v>0.05699206997805817</v>
       </c>
       <c r="E16">
-        <v>0.1421413112691994</v>
+        <v>0.1510577847968833</v>
       </c>
       <c r="F16">
-        <v>1.790109064019759</v>
+        <v>1.164508759380169</v>
       </c>
       <c r="G16">
-        <v>0.000801484219064363</v>
+        <v>0.008673148283099508</v>
       </c>
       <c r="H16">
-        <v>0.1632054202075182</v>
+        <v>0.1626157072782632</v>
       </c>
       <c r="I16">
-        <v>0.001746920275150998</v>
+        <v>0.001916291022622474</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8449181526554881</v>
+        <v>0.4665341393978295</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1953990215024319</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1615770501782166</v>
       </c>
       <c r="N16">
-        <v>0.03897686658434019</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4756149835068939</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04377977393803256</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4788342951704578</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.894903885265023</v>
+        <v>3.908036396737941</v>
       </c>
       <c r="C17">
-        <v>1.352522960289434</v>
+        <v>1.473117162734582</v>
       </c>
       <c r="D17">
-        <v>0.04973746124047995</v>
+        <v>0.05037701670437045</v>
       </c>
       <c r="E17">
-        <v>0.1223548004363764</v>
+        <v>0.133525220803886</v>
       </c>
       <c r="F17">
-        <v>1.887675132140586</v>
+        <v>1.286749375280053</v>
       </c>
       <c r="G17">
-        <v>0.0008036087746733343</v>
+        <v>0.003038046863320432</v>
       </c>
       <c r="H17">
-        <v>0.1258453785668081</v>
+        <v>0.1249870112180815</v>
       </c>
       <c r="I17">
-        <v>0.002075512619372333</v>
+        <v>0.001986183301835531</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9294275079538608</v>
+        <v>0.5438443184556263</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2251513985823657</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1889423022216121</v>
       </c>
       <c r="N17">
-        <v>0.048428935079599</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4752293961147274</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0548872666645579</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.479474463049641</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.766193738809761</v>
+        <v>3.778960372531799</v>
       </c>
       <c r="C18">
-        <v>1.274766318656418</v>
+        <v>1.419686552937947</v>
       </c>
       <c r="D18">
-        <v>0.05342199056896835</v>
+        <v>0.04509313576656027</v>
       </c>
       <c r="E18">
-        <v>0.09646118786864832</v>
+        <v>0.1079126008971301</v>
       </c>
       <c r="F18">
-        <v>2.17657142428574</v>
+        <v>1.493292074806106</v>
       </c>
       <c r="G18">
-        <v>0.0008043150280792709</v>
+        <v>0.001805200180646338</v>
       </c>
       <c r="H18">
-        <v>0.07311589361125215</v>
+        <v>0.07219035467080204</v>
       </c>
       <c r="I18">
-        <v>0.001954680403232878</v>
+        <v>0.001731902530199392</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.135747483965758</v>
+        <v>0.6706464394870935</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2722910015153488</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2364292405489437</v>
       </c>
       <c r="N18">
-        <v>0.07655378256907852</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5008338585345129</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.0851797426701566</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5060820407755955</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.693541647426628</v>
+        <v>3.704882762885802</v>
       </c>
       <c r="C19">
-        <v>1.213683701860191</v>
+        <v>1.378898793455733</v>
       </c>
       <c r="D19">
-        <v>0.06372500349977095</v>
+        <v>0.04331877463598488</v>
       </c>
       <c r="E19">
-        <v>0.07330917231197454</v>
+        <v>0.08337346403664014</v>
       </c>
       <c r="F19">
-        <v>2.601224669321454</v>
+        <v>1.76174237013268</v>
       </c>
       <c r="G19">
-        <v>0.00080375403331278</v>
+        <v>0.001429927845348455</v>
       </c>
       <c r="H19">
-        <v>0.02756282465053062</v>
+        <v>0.02679528137053211</v>
       </c>
       <c r="I19">
-        <v>0.001954816457731212</v>
+        <v>0.00186220999810871</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.437653306758449</v>
+        <v>0.8380279989785038</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.333399131501011</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3006881336703842</v>
       </c>
       <c r="N19">
-        <v>0.1306176822305787</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5465518396638487</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1419988756995778</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5528535923045652</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.780808441566535</v>
+        <v>3.787018187449348</v>
       </c>
       <c r="C20">
-        <v>1.191807074258065</v>
+        <v>1.370559359079948</v>
       </c>
       <c r="D20">
-        <v>0.09203850943551828</v>
+        <v>0.04706708209183663</v>
       </c>
       <c r="E20">
-        <v>0.05678674093996161</v>
+        <v>0.06185407270029941</v>
       </c>
       <c r="F20">
-        <v>3.434989491498897</v>
+        <v>2.210121973581664</v>
       </c>
       <c r="G20">
-        <v>0.0007996004885152745</v>
+        <v>0.002761666899513848</v>
       </c>
       <c r="H20">
-        <v>0.0003797801315497118</v>
+        <v>0.0001862202214377717</v>
       </c>
       <c r="I20">
-        <v>0.001615375519154583</v>
+        <v>0.002006756287114442</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.025031911527478</v>
+        <v>1.114596375752868</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4291747113655831</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4130846722317685</v>
       </c>
       <c r="N20">
-        <v>0.2542311026562487</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6478141404547983</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2688313921362351</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6551126820923798</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.260880876941144</v>
+        <v>4.256590795221825</v>
       </c>
       <c r="C21">
-        <v>1.348581494303062</v>
+        <v>1.422932390053575</v>
       </c>
       <c r="D21">
-        <v>0.09916123736736182</v>
+        <v>0.04480340190958998</v>
       </c>
       <c r="E21">
-        <v>0.0641878923201249</v>
+        <v>0.0629013143235575</v>
       </c>
       <c r="F21">
-        <v>3.877734325972312</v>
+        <v>2.061927711316329</v>
       </c>
       <c r="G21">
-        <v>0.0007919270811133614</v>
+        <v>0.06400768637371357</v>
       </c>
       <c r="H21">
-        <v>0.0001047124067703464</v>
+        <v>7.553266776572087E-05</v>
       </c>
       <c r="I21">
-        <v>0.002400435713882487</v>
+        <v>0.002657692196717854</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.264223711953107</v>
+        <v>0.986406080143901</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3703204512294107</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3788019395350659</v>
       </c>
       <c r="N21">
-        <v>0.2969674405240568</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7363904819818856</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3024926614269248</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7393206580097882</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.579900041377869</v>
+        <v>4.567151696788926</v>
       </c>
       <c r="C22">
-        <v>1.453592784706757</v>
+        <v>1.450655028267477</v>
       </c>
       <c r="D22">
-        <v>0.1029521435220175</v>
+        <v>0.0458463613632798</v>
       </c>
       <c r="E22">
-        <v>0.06979053780150135</v>
+        <v>0.06440959805316737</v>
       </c>
       <c r="F22">
-        <v>4.151842500061093</v>
+        <v>1.940994772461849</v>
       </c>
       <c r="G22">
-        <v>0.0007870388187552535</v>
+        <v>0.1533802104091535</v>
       </c>
       <c r="H22">
-        <v>0.0007106854130420892</v>
+        <v>0.0003641707474215661</v>
       </c>
       <c r="I22">
-        <v>0.003586550199160321</v>
+        <v>0.003041594155190452</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.408281947689503</v>
+        <v>0.8917825595087407</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3298420417528831</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3507437875410275</v>
       </c>
       <c r="N22">
-        <v>0.3184713008216704</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.790742296387819</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3171559669383583</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.790151885474792</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.40971005793773</v>
+        <v>4.401686090007161</v>
       </c>
       <c r="C23">
-        <v>1.394676415006018</v>
+        <v>1.446812999004067</v>
       </c>
       <c r="D23">
-        <v>0.1017574557334981</v>
+        <v>0.04497532394678849</v>
       </c>
       <c r="E23">
-        <v>0.06679293192818392</v>
+        <v>0.0638985849233471</v>
       </c>
       <c r="F23">
-        <v>4.023132084296748</v>
+        <v>2.057717510948564</v>
       </c>
       <c r="G23">
-        <v>0.0007895991151673575</v>
+        <v>0.08736477131780873</v>
       </c>
       <c r="H23">
-        <v>0.0003256378134137705</v>
+        <v>0.0001943598142317704</v>
       </c>
       <c r="I23">
-        <v>0.002579808860953214</v>
+        <v>0.002479938267999415</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.345230025718848</v>
+        <v>0.9720760095612064</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3615538798874312</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3779272270765048</v>
       </c>
       <c r="N23">
-        <v>0.3068645749942505</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7616219768302273</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3101720901975398</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7634640077312085</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.769361171206015</v>
+        <v>3.775331085376479</v>
       </c>
       <c r="C24">
-        <v>1.180141824394866</v>
+        <v>1.361697437178691</v>
       </c>
       <c r="D24">
-        <v>0.0957874802938008</v>
+        <v>0.04797205533366089</v>
       </c>
       <c r="E24">
-        <v>0.05592355494113477</v>
+        <v>0.06068215457417558</v>
       </c>
       <c r="F24">
-        <v>3.513215784105341</v>
+        <v>2.261539032920496</v>
       </c>
       <c r="G24">
-        <v>0.0007995020274083504</v>
+        <v>0.00256877331735339</v>
       </c>
       <c r="H24">
-        <v>0.0002299905416300874</v>
+        <v>5.411611162164931E-05</v>
       </c>
       <c r="I24">
-        <v>0.001122357017816711</v>
+        <v>0.001426834052027814</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.086264321530351</v>
+        <v>1.150328408688281</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4422507398370072</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4267758000233854</v>
       </c>
       <c r="N24">
-        <v>0.2635922954889338</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.652228161582812</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2786352435411175</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6596787518285865</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.086526581592636</v>
+        <v>3.099604478161325</v>
       </c>
       <c r="C25">
-        <v>0.9559631841918019</v>
+        <v>1.120713284760711</v>
       </c>
       <c r="D25">
-        <v>0.08915941002697281</v>
+        <v>0.04686167626381899</v>
       </c>
       <c r="E25">
-        <v>0.04506323694731762</v>
+        <v>0.05315026695150316</v>
       </c>
       <c r="F25">
-        <v>2.975345609154431</v>
+        <v>1.981016773946664</v>
       </c>
       <c r="G25">
-        <v>0.0008105159022864427</v>
+        <v>0.004306910681003195</v>
       </c>
       <c r="H25">
-        <v>0.002696175858012184</v>
+        <v>0.001250036678875688</v>
       </c>
       <c r="I25">
-        <v>0.003153021990122795</v>
+        <v>0.001789293493970945</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.811673898428097</v>
+        <v>1.057277197583751</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4292205207303681</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3675141328282834</v>
       </c>
       <c r="N25">
-        <v>0.2177701618182937</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5355145583947092</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2343612573387475</v>
       </c>
       <c r="Q25">
+        <v>0.5425899029001968</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
